--- a/labwork4/Test-Script.xlsx
+++ b/labwork4/Test-Script.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E629D544-F293-43EA-B1F4-F8AD0500120B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617F00C4-D415-4B63-85F9-D65C75BC92A1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Легенда" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="89">
   <si>
     <t>V1.0</t>
   </si>
@@ -122,15 +122,15 @@
     <t>Автор</t>
   </si>
   <si>
+    <t>Создание документа</t>
+  </si>
+  <si>
     <t>Список проверок для функционального/регрессионного тестирования</t>
   </si>
   <si>
     <t>1.1</t>
   </si>
   <si>
-    <t>1.1.1</t>
-  </si>
-  <si>
     <t>Система &lt;название&gt;</t>
   </si>
   <si>
@@ -143,6 +143,9 @@
     <t>"Спецификация_документ.doc" - спецификация требований.</t>
   </si>
   <si>
+    <t>дата</t>
+  </si>
+  <si>
     <t xml:space="preserve"> OK</t>
   </si>
   <si>
@@ -167,72 +170,9 @@
     <t>Модуль</t>
   </si>
   <si>
-    <t>Подмодуль</t>
-  </si>
-  <si>
-    <t>Тестовый случай 1</t>
-  </si>
-  <si>
-    <t>Тестовый случай 2</t>
-  </si>
-  <si>
-    <t>Тестовый случай 3</t>
-  </si>
-  <si>
-    <t>Тестовый случай 4</t>
-  </si>
-  <si>
-    <t>Тестовый случай 5</t>
-  </si>
-  <si>
-    <t>1.1.1.1</t>
-  </si>
-  <si>
-    <t>1.1.1.2</t>
-  </si>
-  <si>
-    <t>1.1.1.3</t>
-  </si>
-  <si>
-    <t>1.1.1.4</t>
-  </si>
-  <si>
-    <t>1.1.1.5</t>
-  </si>
-  <si>
     <t>Создание проекта с заполнением обязательных полей</t>
   </si>
   <si>
-    <t>Pre-Alpha</t>
-  </si>
-  <si>
-    <t>V1.0.1</t>
-  </si>
-  <si>
-    <t>V1.0.2</t>
-  </si>
-  <si>
-    <t>V1.0.3</t>
-  </si>
-  <si>
-    <t>V1.0.4</t>
-  </si>
-  <si>
-    <t>V1.0.5</t>
-  </si>
-  <si>
-    <t>V1.0.6</t>
-  </si>
-  <si>
-    <t>V1.0.7</t>
-  </si>
-  <si>
-    <t>V1.0.8</t>
-  </si>
-  <si>
-    <t>Ne_programmist</t>
-  </si>
-  <si>
     <t>Создание проекта с заполнением всех полей</t>
   </si>
   <si>
@@ -242,7 +182,7 @@
     <t>Отмена создания проекта при незаполненных полях</t>
   </si>
   <si>
-    <t>Отмена создания проекта при заполненных полях</t>
+    <t>отмена создания проекта при заполненных полях</t>
   </si>
   <si>
     <t>Попытка создания проекта при незаполненом поле "Сокращенное название"</t>
@@ -252,6 +192,138 @@
   </si>
   <si>
     <t>Попытка создания проекта при заполнении поля "Сокращенное название" невалидным значением</t>
+  </si>
+  <si>
+    <t>Попытка создания проекта при заполнении поля "Описание" невалидным значением</t>
+  </si>
+  <si>
+    <t>Попытка создания проекта с заполнением поля название невалидными символами</t>
+  </si>
+  <si>
+    <t>Попытка создания проекта с заполнением поля Сокращенное название невалидными символами</t>
+  </si>
+  <si>
+    <t>Попытка создания проекта с заполнением поля описание невалидными символами</t>
+  </si>
+  <si>
+    <t>Попытка создания проекта при незаполненом поле "Описание проекта"</t>
+  </si>
+  <si>
+    <t>Осуществлён переход к форме</t>
+  </si>
+  <si>
+    <t>1. Заполнить поле "Название" допустимым значением, например, "Проект 1"
+2. Заполнить поле "Сокращенное название" допустимым значением, например "Сокращение 1"
+3. Нажать кнопку сохранить</t>
+  </si>
+  <si>
+    <t>1. Заполнить поле "Название" допустимым значением, например, "Проект 1"
+2. Заполнить поле "Сокращенное название" допустимым значением, например "Сокращение 1"
+3. Заполнить поле "Описание", например "Описание проекта 1"
+4. Нажать кнопку сохранить</t>
+  </si>
+  <si>
+    <t>1. Заполнить поле "Сокращённое название", например значением "я люблю сокращать названия"
+2. Нажать кнопку сохранить</t>
+  </si>
+  <si>
+    <t>1. Нажать кнопку "Отмена"</t>
+  </si>
+  <si>
+    <t>1. Заполнить все поля
+2. Нажать кнопку "Отмена"</t>
+  </si>
+  <si>
+    <t>1. Заполнить поле "Название", например значением "я люблю сокращать названия"
+2. Нажать кнопку сохранить</t>
+  </si>
+  <si>
+    <t>1. Заполнить поле "Сокращенное название" невалидным значением, например превышающим максимально допустимую длину
+2. Заполнить поле "Название" допустимым значением, например "Название 1"
+3. Заполнить поле "Сокращенное название" допустимым значением, например "Сокращение 1"
+4. Нажать кнопку сохранить</t>
+  </si>
+  <si>
+    <t>1. Перейти во вкладку проекты
+2. Нажать кнопку создать
+3. Заполнить поле название невалидными символами, Например ((╯°益°)╯彡┻━┻ )
+4. Заполнить все остальные поля
+5. Нажать кнопку сохранить</t>
+  </si>
+  <si>
+    <t>1. Перейти во вкладку проекты
+2. Нажать кнопку создать
+3. Заполнить поле Сокращенное название невалидными символами, Например ((╯°益°)╯彡┻━┻ )
+4. Заполнить все остальные поля
+5. Нажать кнопку сохранить</t>
+  </si>
+  <si>
+    <t>1. Перейти во вкладку проекты
+2. Нажать кнопку создать
+3. Заполнить поле описание невалидными символами, Например ((╯°益°)╯彡┻━┻ )
+4. Заполнить все остальные поля
+5. Нажать кнопку сохранить</t>
+  </si>
+  <si>
+    <t>1. Заполнить все поля кроме Описания
+2. Нажать кнопку сохранить</t>
+  </si>
+  <si>
+    <t>Проект сохранён
+Переход к форме "Список проектов"</t>
+  </si>
+  <si>
+    <t>проект сохранён
+Переход к форме "Список проектов"</t>
+  </si>
+  <si>
+    <t>отображение алерта об незаполненном обязательно поле "Название"</t>
+  </si>
+  <si>
+    <t>Переход к форме со списком проектов</t>
+  </si>
+  <si>
+    <t>отображение алерта об незаполненном обязательно поле "Сокращенное название"</t>
+  </si>
+  <si>
+    <t>отображение алерта об неверном заполнении обязательного поля  "Название"</t>
+  </si>
+  <si>
+    <t>отображение алерта об неверном заполнении обязательного поля  "Сокращенное название"</t>
+  </si>
+  <si>
+    <t>отображение алерта об неверном заполнении поля Описание</t>
+  </si>
+  <si>
+    <t>Алерт о недопустимых символах в названии проекта</t>
+  </si>
+  <si>
+    <t>Алерт о недопустимых символах в Сокращенном названии проекта</t>
+  </si>
+  <si>
+    <t>Алерт о недопустимых символах в описании проекта</t>
+  </si>
+  <si>
+    <t>отображение алерта об незаполненном обязательно поле "Описание"</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>1. Заполнить поле "Название" невалидным значением, например, "ФВцфштвщшфцтаоафыплоут"
+2. Заполнить поле "Сокращенное название" допустимым значением, например "Сокращение 1"
+3. Нажать кнопку сохранить</t>
+  </si>
+  <si>
+    <t>1. Заполнить поле "Сокращенное название" невалидным значением, например, "ФВцфштвщшфцтаоафыплоут"
+2. Заполнить поле "Сокращенное название" допустимым значением, например "Сокращение 1"
+3. Нажать кнопку сохранить</t>
+  </si>
+  <si>
+    <t>Система &lt;Ya ne programmist&gt;</t>
   </si>
 </sst>
 </file>
@@ -260,9 +332,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
-    <numFmt numFmtId="169" formatCode="00000"/>
+    <numFmt numFmtId="165" formatCode="00000"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -371,20 +443,6 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -413,6 +471,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="26"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -431,28 +495,23 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -634,55 +693,22 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -692,7 +718,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -708,29 +734,22 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
@@ -776,53 +795,96 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="169" fontId="16" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="2" xr:uid="{713C37B8-34CC-4C2F-B688-34EBA48533E8}"/>
     <cellStyle name="Плохой" xfId="1" builtinId="27"/>
-    <cellStyle name="Хороший 2" xfId="3" xr:uid="{BF40043D-5E93-4A80-9E5E-C8D4A4A11BF3}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FFCCFFCC"/>
-      <color rgb="FFFFFFCC"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1180,10 +1242,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1196,281 +1258,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="15"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
     </row>
     <row r="3" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="35"/>
+      <c r="D5" s="36"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="35"/>
+      <c r="D6" s="36"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="26"/>
+      <c r="D7" s="27"/>
+    </row>
+    <row r="8" spans="1:7" s="8" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="30"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="32"/>
+      <c r="D9" s="33"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="32"/>
+      <c r="D10" s="33"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="32"/>
+      <c r="D11" s="33"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="32"/>
+      <c r="D12" s="33"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="32"/>
+      <c r="D13" s="33"/>
+    </row>
+    <row r="14" spans="1:7" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="39"/>
+    </row>
+    <row r="15" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-    </row>
-    <row r="4" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-    </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="49"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="49"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="40"/>
-    </row>
-    <row r="8" spans="1:7" s="18" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="43"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="46"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="46"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="45"/>
-      <c r="D11" s="46"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="63" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="45"/>
-      <c r="D12" s="46"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="46"/>
-    </row>
-    <row r="14" spans="1:7" s="21" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="52"/>
-    </row>
-    <row r="15" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="24" t="s">
+      <c r="D16" s="17" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="59">
-        <v>43567</v>
-      </c>
-      <c r="B16" s="64" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="61" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="59">
-        <v>43568</v>
-      </c>
-      <c r="B17" s="64" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="61" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="59">
-        <v>43569</v>
-      </c>
-      <c r="B18" s="64" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="62" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="59">
-        <v>43570</v>
-      </c>
-      <c r="B19" s="64" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="62" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="59">
-        <v>43571</v>
-      </c>
-      <c r="B20" s="64" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" s="62" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="59">
-        <v>43572</v>
-      </c>
-      <c r="B21" s="64" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="62" t="s">
-        <v>71</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="59">
-        <v>43573</v>
-      </c>
-      <c r="B22" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="62" t="s">
-        <v>72</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="59">
-        <v>43574</v>
-      </c>
-      <c r="B23" s="64" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" s="62" t="s">
-        <v>73</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="59">
-        <v>43575</v>
-      </c>
-      <c r="B24" s="64" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" s="62" t="s">
-        <v>74</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="60"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -1489,7 +1433,6 @@
     <mergeCell ref="A8:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1498,298 +1441,555 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B38" sqref="B38"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.88671875" customWidth="1"/>
     <col min="2" max="2" width="44.33203125" customWidth="1"/>
-    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="3" max="3" width="27.77734375" customWidth="1"/>
     <col min="4" max="4" width="32.6640625" customWidth="1"/>
     <col min="5" max="5" width="33.33203125" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="3"/>
+    <row r="1" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="53"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="53" t="s">
+      <c r="A2" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="54"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="42"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="30" t="s">
+      <c r="B3" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="C3" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="D3" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="E3" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="O3" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="P3" s="47" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="57"/>
-    </row>
-    <row r="5" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
+      <c r="A4" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B4" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-    </row>
-    <row r="6" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="50"/>
+    </row>
+    <row r="5" spans="1:16" ht="100.8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="58">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B5" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="51"/>
+    </row>
+    <row r="6" spans="1:16" ht="100.8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="58">
+        <v>1.2</v>
+      </c>
+      <c r="B6" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="51"/>
+    </row>
+    <row r="7" spans="1:16" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="58">
+        <v>1.3</v>
+      </c>
+      <c r="B7" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="51"/>
+      <c r="P7" s="51"/>
+    </row>
+    <row r="8" spans="1:16" ht="28.8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="58">
+        <v>1.4</v>
+      </c>
+      <c r="B8" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="51"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="51"/>
+    </row>
+    <row r="9" spans="1:16" ht="28.8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="58">
+        <v>1.5</v>
+      </c>
+      <c r="B9" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="51"/>
+      <c r="O9" s="51"/>
+      <c r="P9" s="51"/>
+    </row>
+    <row r="10" spans="1:16" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="58">
+        <v>1.6</v>
+      </c>
+      <c r="B10" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-    </row>
-    <row r="7" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+      <c r="C10" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="51"/>
+      <c r="P10" s="51"/>
+    </row>
+    <row r="11" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="58">
+        <v>1.7</v>
+      </c>
+      <c r="B11" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="C11" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="64"/>
+      <c r="N11" s="64"/>
+      <c r="O11" s="64"/>
+      <c r="P11" s="64"/>
+    </row>
+    <row r="12" spans="1:16" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="58">
+        <v>1.8</v>
+      </c>
+      <c r="B12" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="62" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="64"/>
+      <c r="M12" s="64"/>
+      <c r="N12" s="64"/>
+      <c r="O12" s="64"/>
+      <c r="P12" s="64"/>
+    </row>
+    <row r="13" spans="1:16" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="58">
+        <v>1.9</v>
+      </c>
+      <c r="B13" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="62" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="64"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="64"/>
+      <c r="P13" s="64"/>
+    </row>
+    <row r="14" spans="1:16" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="66">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B14" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-    </row>
-    <row r="8" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-    </row>
-    <row r="9" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-    </row>
-    <row r="10" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="56"/>
-      <c r="P11" s="57"/>
+      <c r="C14" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="64"/>
+      <c r="O14" s="64"/>
+      <c r="P14" s="64"/>
+    </row>
+    <row r="15" spans="1:16" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="58">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="B15" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="64"/>
+      <c r="P15" s="64"/>
+    </row>
+    <row r="16" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="58">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="B16" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="62" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="64"/>
+      <c r="O16" s="64"/>
+      <c r="P16" s="64"/>
+    </row>
+    <row r="17" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="58">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="B17" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="62" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="65"/>
+      <c r="M17" s="65"/>
+      <c r="N17" s="65"/>
+      <c r="O17" s="65"/>
+      <c r="P17" s="65"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="F2:P2"/>
     <mergeCell ref="F4:P4"/>
-    <mergeCell ref="F11:P11"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65529:F65536 F131065:F131072 F196601:F196608 F262137:F262144 F327673:F327680 F393209:F393216 F458745:F458752 F524281:F524288 F589817:F589824 F655353:F655360 F720889:F720896 F786425:F786432 F851961:F851968 F917497:F917504 F983033:F983040 F65521 F131057 F196593 F262129 F327665 F393201 F458737 F524273 F589809 F655345 F720881 F786417 F851953 F917489 F983025 F65523:F65527 F131059:F131063 F196595:F196599 F262131:F262135 F327667:F327671 F393203:F393207 F458739:F458743 F524275:F524279 F589811:F589815 F655347:F655351 F720883:F720887 F786419:F786423 F851955:F851959 F917491:F917495 F983027:F983031 F65538:F65542 F131074:F131078 F196610:F196614 F262146:F262150 F327682:F327686 F393218:F393222 F458754:F458758 F524290:F524294 F589826:F589830 F655362:F655366 F720898:F720902 F786434:F786438 F851970:F851974 F917506:F917510 F983042:F983046 F65544:F65546 F131080:F131082 F196616:F196618 F262152:F262154 F327688:F327690 F393224:F393226 F458760:F458762 F524296:F524298 F589832:F589834 F655368:F655370 F720904:F720906 F786440:F786442 F851976:F851978 F917512:F917514 F983048:F983050 F65548:F65551 F131084:F131087 F196620:F196623 F262156:F262159 F327692:F327695 F393228:F393231 F458764:F458767 F524300:F524303 F589836:F589839 F655372:F655375 F720908:F720911 F786444:F786447 F851980:F851983 F917516:F917519 F983052:F983055" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65528:F65535 F131064:F131071 F196600:F196607 F262136:F262143 F327672:F327679 F393208:F393215 F458744:F458751 F524280:F524287 F589816:F589823 F655352:F655359 F720888:F720895 F786424:F786431 F851960:F851967 F917496:F917503 F983032:F983039 F65520 F131056 F196592 F262128 F327664 F393200 F458736 F524272 F589808 F655344 F720880 F786416 F851952 F917488 F983024 F65522:F65526 F131058:F131062 F196594:F196598 F262130:F262134 F327666:F327670 F393202:F393206 F458738:F458742 F524274:F524278 F589810:F589814 F655346:F655350 F720882:F720886 F786418:F786422 F851954:F851958 F917490:F917494 F983026:F983030 F65537:F65541 F131073:F131077 F196609:F196613 F262145:F262149 F327681:F327685 F393217:F393221 F458753:F458757 F524289:F524293 F589825:F589829 F655361:F655365 F720897:F720901 F786433:F786437 F851969:F851973 F917505:F917509 F983041:F983045 F65543:F65545 F131079:F131081 F196615:F196617 F262151:F262153 F327687:F327689 F393223:F393225 F458759:F458761 F524295:F524297 F589831:F589833 F655367:F655369 F720903:F720905 F786439:F786441 F851975:F851977 F917511:F917513 F983047:F983049 F65547:F65550 F131083:F131086 F196619:F196622 F262155:F262158 F327691:F327694 F393227:F393230 F458763:F458766 F524299:F524302 F589835:F589838 F655371:F655374 F720907:F720910 F786443:F786446 F851979:F851982 F917515:F917518 F983051:F983054" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>Status</formula1>
     </dataValidation>
   </dataValidations>

--- a/labwork4/Test-Script.xlsx
+++ b/labwork4/Test-Script.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\labwork4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617F00C4-D415-4B63-85F9-D65C75BC92A1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E3CBB9F-C9D4-45EE-B934-805D9A729927}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -698,7 +698,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -755,33 +755,64 @@
     <xf numFmtId="0" fontId="15" fillId="9" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -789,14 +820,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -804,74 +859,10 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1264,20 +1255,20 @@
       <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
     </row>
     <row r="3" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
@@ -1286,107 +1277,107 @@
       <c r="A4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="36"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="47"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="36"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="47"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="27"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="57"/>
     </row>
     <row r="8" spans="1:7" s="8" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="30"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="59"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="33"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="44"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="33"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="44"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="33"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="44"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="32"/>
-      <c r="D12" s="33"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="44"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="33"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="44"/>
     </row>
     <row r="14" spans="1:7" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="39"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="51"/>
     </row>
     <row r="15" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
@@ -1418,6 +1409,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A8:D8"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B5:D5"/>
@@ -1426,11 +1422,6 @@
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A8:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1447,7 +1438,7 @@
       <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -1462,508 +1453,508 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="53"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="30"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="41" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="42"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="61"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="E3" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="46" t="s">
+      <c r="F3" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="46" t="s">
+      <c r="G3" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="46" t="s">
+      <c r="H3" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="46" t="s">
+      <c r="I3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="46" t="s">
+      <c r="J3" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="46" t="s">
+      <c r="K3" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="46" t="s">
+      <c r="L3" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="46" t="s">
+      <c r="M3" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="46" t="s">
+      <c r="N3" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="46" t="s">
+      <c r="O3" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="47" t="s">
+      <c r="P3" s="27" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="49"/>
-      <c r="P4" s="50"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
     </row>
     <row r="5" spans="1:16" ht="100.8" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="58">
+      <c r="A5" s="38">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="62" t="s">
+      <c r="D5" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="62" t="s">
+      <c r="E5" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="F5" s="60" t="s">
+      <c r="F5" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="51"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
     </row>
     <row r="6" spans="1:16" ht="100.8" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="58">
+      <c r="A6" s="38">
         <v>1.2</v>
       </c>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="62" t="s">
+      <c r="D6" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="62" t="s">
+      <c r="E6" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="F6" s="61" t="s">
+      <c r="F6" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="51"/>
-      <c r="P6" s="51"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
     </row>
     <row r="7" spans="1:16" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="58">
+      <c r="A7" s="38">
         <v>1.3</v>
       </c>
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="62" t="s">
+      <c r="D7" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="E7" s="62" t="s">
+      <c r="E7" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="F7" s="60" t="s">
+      <c r="F7" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="51"/>
-      <c r="O7" s="51"/>
-      <c r="P7" s="51"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
     </row>
     <row r="8" spans="1:16" ht="28.8" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="58">
+      <c r="A8" s="38">
         <v>1.4</v>
       </c>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="62" t="s">
+      <c r="D8" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="62" t="s">
+      <c r="E8" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="F8" s="60" t="s">
+      <c r="F8" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="51"/>
-      <c r="N8" s="51"/>
-      <c r="O8" s="51"/>
-      <c r="P8" s="51"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
     </row>
     <row r="9" spans="1:16" ht="28.8" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="58">
+      <c r="A9" s="38">
         <v>1.5</v>
       </c>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="59" t="s">
+      <c r="C9" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="62" t="s">
+      <c r="D9" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="62" t="s">
+      <c r="E9" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="60" t="s">
+      <c r="F9" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="51"/>
-      <c r="O9" s="51"/>
-      <c r="P9" s="51"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
     </row>
     <row r="10" spans="1:16" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="58">
+      <c r="A10" s="38">
         <v>1.6</v>
       </c>
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="59" t="s">
+      <c r="C10" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="62" t="s">
+      <c r="D10" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="62" t="s">
+      <c r="E10" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="F10" s="60" t="s">
+      <c r="F10" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="51"/>
-      <c r="P10" s="51"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
     </row>
     <row r="11" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="58">
+      <c r="A11" s="38">
         <v>1.7</v>
       </c>
-      <c r="B11" s="62" t="s">
+      <c r="B11" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="59" t="s">
+      <c r="C11" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="62" t="s">
+      <c r="D11" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="E11" s="62" t="s">
+      <c r="E11" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="F11" s="61" t="s">
+      <c r="F11" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="64"/>
-      <c r="L11" s="64"/>
-      <c r="M11" s="64"/>
-      <c r="N11" s="64"/>
-      <c r="O11" s="64"/>
-      <c r="P11" s="64"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
     </row>
     <row r="12" spans="1:16" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="58">
+      <c r="A12" s="38">
         <v>1.8</v>
       </c>
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="59" t="s">
+      <c r="C12" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="62" t="s">
+      <c r="D12" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="E12" s="62" t="s">
+      <c r="E12" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="F12" s="61" t="s">
+      <c r="F12" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="64"/>
-      <c r="L12" s="64"/>
-      <c r="M12" s="64"/>
-      <c r="N12" s="64"/>
-      <c r="O12" s="64"/>
-      <c r="P12" s="64"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="40"/>
     </row>
     <row r="13" spans="1:16" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="58">
+      <c r="A13" s="38">
         <v>1.9</v>
       </c>
-      <c r="B13" s="62" t="s">
+      <c r="B13" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="59" t="s">
+      <c r="C13" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="62" t="s">
+      <c r="D13" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="62" t="s">
+      <c r="E13" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="61" t="s">
+      <c r="F13" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="64"/>
-      <c r="L13" s="64"/>
-      <c r="M13" s="64"/>
-      <c r="N13" s="64"/>
-      <c r="O13" s="64"/>
-      <c r="P13" s="64"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
     </row>
     <row r="14" spans="1:16" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="66">
+      <c r="A14" s="63">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B14" s="62" t="s">
+      <c r="B14" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="59" t="s">
+      <c r="C14" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="62" t="s">
+      <c r="D14" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="E14" s="62" t="s">
+      <c r="E14" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="60" t="s">
+      <c r="F14" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="64"/>
-      <c r="L14" s="64"/>
-      <c r="M14" s="64"/>
-      <c r="N14" s="64"/>
-      <c r="O14" s="64"/>
-      <c r="P14" s="64"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40"/>
     </row>
     <row r="15" spans="1:16" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="58">
+      <c r="A15" s="38">
         <v>1.1100000000000001</v>
       </c>
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="59" t="s">
+      <c r="C15" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="62" t="s">
+      <c r="D15" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="E15" s="62" t="s">
+      <c r="E15" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="F15" s="61" t="s">
+      <c r="F15" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="64"/>
-      <c r="L15" s="64"/>
-      <c r="M15" s="64"/>
-      <c r="N15" s="64"/>
-      <c r="O15" s="64"/>
-      <c r="P15" s="64"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
     </row>
     <row r="16" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="58">
+      <c r="A16" s="38">
         <v>1.1200000000000001</v>
       </c>
-      <c r="B16" s="62" t="s">
+      <c r="B16" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="59" t="s">
+      <c r="C16" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="62" t="s">
+      <c r="D16" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="E16" s="62" t="s">
+      <c r="E16" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="F16" s="61" t="s">
+      <c r="F16" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="64"/>
-      <c r="J16" s="64"/>
-      <c r="K16" s="64"/>
-      <c r="L16" s="64"/>
-      <c r="M16" s="64"/>
-      <c r="N16" s="64"/>
-      <c r="O16" s="64"/>
-      <c r="P16" s="64"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40"/>
     </row>
     <row r="17" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="58">
+      <c r="A17" s="38">
         <v>1.1299999999999999</v>
       </c>
-      <c r="B17" s="62" t="s">
+      <c r="B17" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="59" t="s">
+      <c r="C17" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="62" t="s">
+      <c r="D17" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="E17" s="62" t="s">
+      <c r="E17" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="F17" s="60" t="s">
+      <c r="F17" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="G17" s="65"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="65"/>
-      <c r="L17" s="65"/>
-      <c r="M17" s="65"/>
-      <c r="N17" s="65"/>
-      <c r="O17" s="65"/>
-      <c r="P17" s="65"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="41"/>
+      <c r="P17" s="41"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
